--- a/lab/05-file/umsatz.xlsx
+++ b/lab/05-file/umsatz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\workspace\iten-engineering\workshop\lab\05-file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BCF48D-3F76-4B92-9011-4899BCAB5B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCAD005-9440-4741-8811-ABB60480CD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11870" yWindow="2920" windowWidth="22210" windowHeight="11720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
